--- a/public/excel/74172347.xlsx
+++ b/public/excel/74172347.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\newElectronicSignature\public\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7815"/>
   </bookViews>
   <sheets>
-    <sheet name="Lịch giảng dạy" sheetId="1" r:id="rId4"/>
+    <sheet name="Lịch giảng dạy" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>Trường đại học công nghiệp hà nội</t>
   </si>
@@ -42,9 +46,6 @@
   </si>
   <si>
     <t>Giáo viên:</t>
-  </si>
-  <si>
-    <t>Đã ký</t>
   </si>
   <si>
     <t>Học kỳ :</t>
@@ -95,23 +96,15 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -122,34 +115,43 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="none"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -439,200 +441,201 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:T8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="R1" sqref="R1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T3" sqref="T3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:20">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
       <c r="K1" s="1"/>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="R1" s="1" t="s">
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="R1" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
     </row>
-    <row r="2" spans="1:20">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="D2" s="3"/>
+      <c r="L2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="1"/>
-      <c r="N2" t="s">
+      <c r="M2" s="2"/>
+      <c r="N2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="R2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="T2" t="s">
+      <c r="S2" s="3"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="F3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="L3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M3" s="2"/>
+      <c r="N3" s="3">
+        <v>74172347</v>
+      </c>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="R3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="S3" s="3"/>
     </row>
-    <row r="3" spans="1:20">
-      <c r="A3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="1"/>
-      <c r="H3" t="s">
-        <v>13</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M3" s="1"/>
-      <c r="N3">
-        <v>74172347</v>
-      </c>
-      <c r="R3" s="1" t="s">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="3">
+        <v>2019</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="L4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M4" s="2"/>
+      <c r="N4" s="3">
+        <v>4</v>
+      </c>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="R4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="S4" s="3"/>
     </row>
-    <row r="4" spans="1:20">
-      <c r="A4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4">
-        <v>2019</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M4" s="1"/>
-      <c r="N4">
-        <v>4</v>
-      </c>
-      <c r="R4" s="1" t="s">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="C7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
     </row>
-    <row r="7" spans="1:20">
-      <c r="B7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1" t="s">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="L1:P1"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="N3:P3"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <mergeCells count="28">
+    <mergeCell ref="M7:O8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
     <mergeCell ref="L4:M4"/>
     <mergeCell ref="N4:P4"/>
     <mergeCell ref="R1:U1"/>
     <mergeCell ref="R2:S2"/>
     <mergeCell ref="R3:S3"/>
     <mergeCell ref="R4:S4"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="M7:O8"/>
+    <mergeCell ref="L1:P1"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
   </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
 </worksheet>
 </file>